--- a/Excel/Book2.xlsx
+++ b/Excel/Book2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New\school-automation\Erp_school\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New\school-automation\Schoolautomation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157FE58-D84B-44EA-83C3-0E4D8F08EFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF25E0E-16D0-4324-B640-23FDF33CB6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C65AA738-EF8D-47CE-9D2F-830EF9A9F920}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Test_id</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Driver</t>
+  </si>
+  <si>
+    <t>Prasannaee</t>
   </si>
 </sst>
 </file>
@@ -466,15 +469,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD9148B-8DA4-4EBA-92A4-0C6C516CA800}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
     <col min="5" max="5" width="13.90625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" customWidth="1"/>
@@ -603,9 +607,54 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4" s="1">
+        <v>35822</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>9876543210</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1">
+        <v>45563</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>654329</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{ADD22963-206D-4F50-A51C-A5C18FC2A61F}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{CA6DB9C7-5A06-47AC-A266-3B4254095EEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Book2.xlsx
+++ b/Excel/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New\school-automation\Erp_school\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157FE58-D84B-44EA-83C3-0E4D8F08EFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EAA49E-5BE5-467F-A167-1A1B1ABF3A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C65AA738-EF8D-47CE-9D2F-830EF9A9F920}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Test_id</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Driver</t>
+  </si>
+  <si>
+    <t>Prasannaee</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD9148B-8DA4-4EBA-92A4-0C6C516CA800}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,6 +606,50 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4" s="1">
+        <v>35822</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>9876543210</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1">
+        <v>45563</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>654329</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{ADD22963-206D-4F50-A51C-A5C18FC2A61F}"/>

--- a/Excel/Book2.xlsx
+++ b/Excel/Book2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New\school-automation\Erp_school\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\newschoolautomation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EAA49E-5BE5-467F-A167-1A1B1ABF3A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB59210-3F91-4910-A187-49461DCC31CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C65AA738-EF8D-47CE-9D2F-830EF9A9F920}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Test_id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>employeecode</t>
   </si>
   <si>
-    <t>dob</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>designation</t>
   </si>
   <si>
-    <t>doj</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -97,22 +91,13 @@
   </si>
   <si>
     <t>Arcot</t>
-  </si>
-  <si>
-    <t>Non Teaching</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Prasannaee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +109,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,9 +141,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -469,27 +459,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD9148B-8DA4-4EBA-92A4-0C6C516CA800}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:P4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.54296875" customWidth="1"/>
     <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,127 +520,49 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
       <c r="G2">
         <v>9000</v>
       </c>
-      <c r="H2" s="1">
-        <v>35822</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>9876543210</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
-        <v>9876543210</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1">
-        <v>45563</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2">
-        <v>654329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>9999</v>
-      </c>
-      <c r="H3" s="1">
-        <v>35823</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>900</v>
-      </c>
-      <c r="H4" s="1">
-        <v>35822</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>9876543210</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1">
-        <v>45563</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4">
+      <c r="N2">
         <v>654329</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{ADD22963-206D-4F50-A51C-A5C18FC2A61F}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{ADD22963-206D-4F50-A51C-A5C18FC2A61F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
